--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H2">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I2">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J2">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N2">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O2">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P2">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q2">
-        <v>2374.672049165443</v>
+        <v>1.96379909611</v>
       </c>
       <c r="R2">
-        <v>21372.04844248899</v>
+        <v>17.67419186499</v>
       </c>
       <c r="S2">
-        <v>0.03291969191566322</v>
+        <v>0.0008690128975505575</v>
       </c>
       <c r="T2">
-        <v>0.03291969191566322</v>
+        <v>0.0008690128975505576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H3">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I3">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J3">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.569166</v>
       </c>
       <c r="N3">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P3">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q3">
-        <v>65.08837382915732</v>
+        <v>21.03364242627</v>
       </c>
       <c r="R3">
-        <v>585.7953644624159</v>
+        <v>189.30278183643</v>
       </c>
       <c r="S3">
-        <v>0.0009023095271199256</v>
+        <v>0.009307727347009321</v>
       </c>
       <c r="T3">
-        <v>0.0009023095271199254</v>
+        <v>0.009307727347009321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H4">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I4">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J4">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.527671</v>
       </c>
       <c r="O4">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P4">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q4">
-        <v>7.295860201492444</v>
+        <v>2.357694710165</v>
       </c>
       <c r="R4">
-        <v>65.66274181343199</v>
+        <v>21.219252391485</v>
       </c>
       <c r="S4">
-        <v>0.0001011413218837052</v>
+        <v>0.00104331808466488</v>
       </c>
       <c r="T4">
-        <v>0.0001011413218837052</v>
+        <v>0.00104331808466488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3338.727783</v>
       </c>
       <c r="I5">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J5">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N5">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O5">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P5">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q5">
-        <v>63713.11886459174</v>
+        <v>163.0464003130514</v>
       </c>
       <c r="R5">
-        <v>573418.0697813256</v>
+        <v>1467.417602817462</v>
       </c>
       <c r="S5">
-        <v>0.8832445914986484</v>
+        <v>0.07215067215984516</v>
       </c>
       <c r="T5">
-        <v>0.8832445914986485</v>
+        <v>0.07215067215984518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I6">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J6">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.569166</v>
       </c>
       <c r="N6">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P6">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q6">
         <v>1746.339373446326</v>
@@ -818,10 +818,10 @@
         <v>15717.05436101693</v>
       </c>
       <c r="S6">
-        <v>0.02420921835259288</v>
+        <v>0.7727834491987213</v>
       </c>
       <c r="T6">
-        <v>0.02420921835259287</v>
+        <v>0.7727834491987213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I7">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J7">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.527671</v>
       </c>
       <c r="O7">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P7">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q7">
         <v>195.7499808870437</v>
@@ -880,10 +880,10 @@
         <v>1761.749827983393</v>
       </c>
       <c r="S7">
-        <v>0.002713650108259427</v>
+        <v>0.08662253609499962</v>
       </c>
       <c r="T7">
-        <v>0.002713650108259427</v>
+        <v>0.08662253609499961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>205.090015</v>
       </c>
       <c r="I8">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J8">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>57.24915866666667</v>
+        <v>0.1465046666666667</v>
       </c>
       <c r="N8">
-        <v>171.747476</v>
+        <v>0.439514</v>
       </c>
       <c r="O8">
-        <v>0.9704198736548433</v>
+        <v>0.07745172725947863</v>
       </c>
       <c r="P8">
-        <v>0.9704198736548435</v>
+        <v>0.07745172725947864</v>
       </c>
       <c r="Q8">
-        <v>3913.743603228015</v>
+        <v>10.01554809474556</v>
       </c>
       <c r="R8">
-        <v>35223.69242905214</v>
+        <v>90.13993285271</v>
       </c>
       <c r="S8">
-        <v>0.05425559024053166</v>
+        <v>0.004432042202082914</v>
       </c>
       <c r="T8">
-        <v>0.05425559024053166</v>
+        <v>0.004432042202082915</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>205.090015</v>
       </c>
       <c r="I9">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J9">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.569166</v>
       </c>
       <c r="N9">
-        <v>4.707497999999999</v>
+        <v>4.707498</v>
       </c>
       <c r="O9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="P9">
-        <v>0.02659864191768633</v>
+        <v>0.8295614045753745</v>
       </c>
       <c r="Q9">
         <v>107.2734261591633</v>
       </c>
       <c r="R9">
-        <v>965.4608354324698</v>
+        <v>965.46083543247</v>
       </c>
       <c r="S9">
-        <v>0.001487114037973532</v>
+        <v>0.04747022802964392</v>
       </c>
       <c r="T9">
-        <v>0.001487114037973532</v>
+        <v>0.04747022802964392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>205.090015</v>
       </c>
       <c r="I10">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J10">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.527671</v>
       </c>
       <c r="O10">
-        <v>0.002981484427470275</v>
+        <v>0.09298686816514685</v>
       </c>
       <c r="P10">
-        <v>0.002981484427470276</v>
+        <v>0.09298686816514684</v>
       </c>
       <c r="Q10">
         <v>12.02445036722944</v>
@@ -1066,10 +1066,10 @@
         <v>108.220053305065</v>
       </c>
       <c r="S10">
-        <v>0.0001666929973271431</v>
+        <v>0.005321013985482359</v>
       </c>
       <c r="T10">
-        <v>0.0001666929973271431</v>
+        <v>0.005321013985482358</v>
       </c>
     </row>
   </sheetData>
